--- a/Supplementary_files/Supplementary_Tables_1-6.xlsx
+++ b/Supplementary_files/Supplementary_Tables_1-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_Current_reserach\01_Projects\01_PhD_project\01_Phenotypic_correlations\doc\manuscript_isi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_Current_reserach\01_Projects\01_PhD_project\isi_t2d\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF5C81-AC22-42B8-8789-E10E32A04BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5A20C-E80F-4ED3-A4A1-12C0DC198457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28730" yWindow="-14510" windowWidth="34620" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8510" yWindow="-14510" windowWidth="34620" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1400">
   <si>
     <t>Indices</t>
   </si>
@@ -4209,6 +4209,36 @@
   </si>
   <si>
     <t>Coomon among all indices</t>
+  </si>
+  <si>
+    <t>snp consequence type</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>intron_variant</t>
+  </si>
+  <si>
+    <t>missense_variant</t>
+  </si>
+  <si>
+    <t>3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant</t>
+  </si>
+  <si>
+    <t>NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t>5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t>synonymous_variant</t>
   </si>
 </sst>
 </file>
@@ -4484,7 +4514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4502,7 +4532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -4530,9 +4559,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5_1" ref="A5:G432" totalsRowShown="0">
-  <autoFilter ref="A5:G432" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5_1" ref="A5:H432" totalsRowShown="0">
+  <autoFilter ref="A5:H432" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="nearest_gene"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="index_variant"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="chromosome"/>
@@ -4540,6 +4569,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="risk_allele"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="other_allele"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="risk_allele_frequency"/>
+    <tableColumn id="8" xr3:uid="{420CD640-CA90-451B-BEE6-DCA4BC998F96}" name="snp consequence type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5019,24 +5049,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="31.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="str">
         <f>HYPERLINK("#'Overview'!A1", "Back to Overview")</f>
         <v>Back to Overview</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>604</v>
       </c>
@@ -5058,8 +5093,11 @@
       <c r="G5" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>611</v>
       </c>
@@ -5081,8 +5119,11 @@
       <c r="G6">
         <v>20.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>615</v>
       </c>
@@ -5104,8 +5145,11 @@
       <c r="G7">
         <v>88.11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>618</v>
       </c>
@@ -5127,8 +5171,11 @@
       <c r="G8">
         <v>90.51</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>620</v>
       </c>
@@ -5150,8 +5197,11 @@
       <c r="G9">
         <v>58.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>622</v>
       </c>
@@ -5173,8 +5223,11 @@
       <c r="G10">
         <v>10.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>624</v>
       </c>
@@ -5196,8 +5249,11 @@
       <c r="G11">
         <v>98.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>626</v>
       </c>
@@ -5219,8 +5275,11 @@
       <c r="G12">
         <v>19.809999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>629</v>
       </c>
@@ -5242,8 +5301,11 @@
       <c r="G13">
         <v>44.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>631</v>
       </c>
@@ -5265,8 +5327,11 @@
       <c r="G14">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>633</v>
       </c>
@@ -5288,8 +5353,11 @@
       <c r="G15">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>633</v>
       </c>
@@ -5311,8 +5379,11 @@
       <c r="G16">
         <v>55.55</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>636</v>
       </c>
@@ -5334,8 +5405,11 @@
       <c r="G17">
         <v>70.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>638</v>
       </c>
@@ -5357,8 +5431,11 @@
       <c r="G18">
         <v>36.049999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>640</v>
       </c>
@@ -5380,8 +5457,11 @@
       <c r="G19">
         <v>63.22</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>642</v>
       </c>
@@ -5403,8 +5483,11 @@
       <c r="G20">
         <v>95.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>642</v>
       </c>
@@ -5426,8 +5509,11 @@
       <c r="G21">
         <v>82.91</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>645</v>
       </c>
@@ -5449,8 +5535,11 @@
       <c r="G22">
         <v>86.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>647</v>
       </c>
@@ -5472,8 +5561,11 @@
       <c r="G23">
         <v>73.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>649</v>
       </c>
@@ -5495,8 +5587,11 @@
       <c r="G24">
         <v>60.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>651</v>
       </c>
@@ -5518,8 +5613,11 @@
       <c r="G25">
         <v>50.07</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>651</v>
       </c>
@@ -5541,8 +5639,11 @@
       <c r="G26">
         <v>90.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -5564,8 +5665,11 @@
       <c r="G27">
         <v>61.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>654</v>
       </c>
@@ -5587,8 +5691,11 @@
       <c r="G28">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>657</v>
       </c>
@@ -5610,8 +5717,11 @@
       <c r="G29">
         <v>45.99</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>659</v>
       </c>
@@ -5633,8 +5743,11 @@
       <c r="G30">
         <v>63.43</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>659</v>
       </c>
@@ -5656,8 +5769,11 @@
       <c r="G31">
         <v>59.79</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>662</v>
       </c>
@@ -5679,8 +5795,11 @@
       <c r="G32">
         <v>72.78</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>664</v>
       </c>
@@ -5702,8 +5821,11 @@
       <c r="G33">
         <v>15.47</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>666</v>
       </c>
@@ -5725,8 +5847,11 @@
       <c r="G34">
         <v>93.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>668</v>
       </c>
@@ -5748,8 +5873,11 @@
       <c r="G35">
         <v>71.349999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>670</v>
       </c>
@@ -5771,8 +5899,11 @@
       <c r="G36">
         <v>58.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>670</v>
       </c>
@@ -5794,8 +5925,11 @@
       <c r="G37">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>673</v>
       </c>
@@ -5817,8 +5951,11 @@
       <c r="G38">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>675</v>
       </c>
@@ -5840,8 +5977,11 @@
       <c r="G39">
         <v>63.85</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>677</v>
       </c>
@@ -5863,8 +6003,11 @@
       <c r="G40">
         <v>87.65</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>677</v>
       </c>
@@ -5886,8 +6029,11 @@
       <c r="G41">
         <v>42.49</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>680</v>
       </c>
@@ -5909,8 +6055,11 @@
       <c r="G42">
         <v>78.78</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>680</v>
       </c>
@@ -5932,8 +6081,11 @@
       <c r="G43">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>683</v>
       </c>
@@ -5955,8 +6107,11 @@
       <c r="G44">
         <v>62.62</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>685</v>
       </c>
@@ -5978,8 +6133,11 @@
       <c r="G45">
         <v>68.42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>687</v>
       </c>
@@ -6001,8 +6159,11 @@
       <c r="G46">
         <v>56.34</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>689</v>
       </c>
@@ -6024,8 +6185,11 @@
       <c r="G47">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>691</v>
       </c>
@@ -6047,8 +6211,11 @@
       <c r="G48">
         <v>84.42</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>693</v>
       </c>
@@ -6070,8 +6237,11 @@
       <c r="G49">
         <v>70.36</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>695</v>
       </c>
@@ -6093,8 +6263,11 @@
       <c r="G50">
         <v>92.83</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>697</v>
       </c>
@@ -6116,8 +6289,11 @@
       <c r="G51">
         <v>61.84</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>699</v>
       </c>
@@ -6139,8 +6315,11 @@
       <c r="G52">
         <v>77.23</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>701</v>
       </c>
@@ -6162,8 +6341,11 @@
       <c r="G53">
         <v>46.51</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>703</v>
       </c>
@@ -6185,8 +6367,11 @@
       <c r="G54">
         <v>89.83</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>705</v>
       </c>
@@ -6208,8 +6393,11 @@
       <c r="G55">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>707</v>
       </c>
@@ -6231,8 +6419,11 @@
       <c r="G56">
         <v>60.02</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>707</v>
       </c>
@@ -6254,8 +6445,11 @@
       <c r="G57">
         <v>95.71</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>710</v>
       </c>
@@ -6277,8 +6471,11 @@
       <c r="G58">
         <v>85.67</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>712</v>
       </c>
@@ -6300,8 +6497,11 @@
       <c r="G59">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>714</v>
       </c>
@@ -6323,8 +6523,11 @@
       <c r="G60">
         <v>45.38</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>716</v>
       </c>
@@ -6346,8 +6549,11 @@
       <c r="G61">
         <v>31.38</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>718</v>
       </c>
@@ -6369,8 +6575,11 @@
       <c r="G62">
         <v>54.68</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>718</v>
       </c>
@@ -6392,8 +6601,11 @@
       <c r="G63">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>721</v>
       </c>
@@ -6415,8 +6627,11 @@
       <c r="G64">
         <v>61.04</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>723</v>
       </c>
@@ -6438,8 +6653,11 @@
       <c r="G65">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>725</v>
       </c>
@@ -6461,8 +6679,11 @@
       <c r="G66">
         <v>50.26</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>727</v>
       </c>
@@ -6484,8 +6705,11 @@
       <c r="G67">
         <v>7.68</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>729</v>
       </c>
@@ -6507,8 +6731,11 @@
       <c r="G68">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>731</v>
       </c>
@@ -6530,8 +6757,11 @@
       <c r="G69">
         <v>71.489999999999995</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>733</v>
       </c>
@@ -6553,8 +6783,11 @@
       <c r="G70">
         <v>42.89</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>735</v>
       </c>
@@ -6576,8 +6809,11 @@
       <c r="G71">
         <v>31.86</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>737</v>
       </c>
@@ -6599,8 +6835,11 @@
       <c r="G72">
         <v>33.78</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>739</v>
       </c>
@@ -6622,8 +6861,11 @@
       <c r="G73">
         <v>50.05</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>741</v>
       </c>
@@ -6645,8 +6887,11 @@
       <c r="G74">
         <v>53.42</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>743</v>
       </c>
@@ -6668,8 +6913,11 @@
       <c r="G75">
         <v>47.28</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>745</v>
       </c>
@@ -6691,8 +6939,11 @@
       <c r="G76">
         <v>44.57</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>747</v>
       </c>
@@ -6714,8 +6965,11 @@
       <c r="G77">
         <v>70.45</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>749</v>
       </c>
@@ -6737,8 +6991,11 @@
       <c r="G78">
         <v>67.67</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>751</v>
       </c>
@@ -6760,8 +7017,11 @@
       <c r="G79">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>753</v>
       </c>
@@ -6783,8 +7043,11 @@
       <c r="G80">
         <v>90.39</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>753</v>
       </c>
@@ -6806,8 +7069,11 @@
       <c r="G81">
         <v>99.38</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>753</v>
       </c>
@@ -6829,8 +7095,11 @@
       <c r="G82">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>753</v>
       </c>
@@ -6852,8 +7121,11 @@
       <c r="G83">
         <v>90.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>753</v>
       </c>
@@ -6875,8 +7147,11 @@
       <c r="G84">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>759</v>
       </c>
@@ -6898,8 +7173,11 @@
       <c r="G85">
         <v>39.32</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>761</v>
       </c>
@@ -6921,8 +7199,11 @@
       <c r="G86">
         <v>51.72</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>761</v>
       </c>
@@ -6944,8 +7225,11 @@
       <c r="G87">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>764</v>
       </c>
@@ -6967,8 +7251,11 @@
       <c r="G88">
         <v>69</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>764</v>
       </c>
@@ -6990,8 +7277,11 @@
       <c r="G89">
         <v>69.09</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>767</v>
       </c>
@@ -7013,8 +7303,11 @@
       <c r="G90">
         <v>74.209999999999994</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>767</v>
       </c>
@@ -7036,8 +7329,11 @@
       <c r="G91">
         <v>40.15</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>767</v>
       </c>
@@ -7059,8 +7355,11 @@
       <c r="G92">
         <v>19.75</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>771</v>
       </c>
@@ -7082,8 +7381,11 @@
       <c r="G93">
         <v>41.05</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>773</v>
       </c>
@@ -7105,8 +7407,11 @@
       <c r="G94">
         <v>60.53</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>775</v>
       </c>
@@ -7128,8 +7433,11 @@
       <c r="G95">
         <v>30.36</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>777</v>
       </c>
@@ -7151,8 +7459,11 @@
       <c r="G96">
         <v>64.760000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>779</v>
       </c>
@@ -7174,8 +7485,11 @@
       <c r="G97">
         <v>25.85</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>781</v>
       </c>
@@ -7197,8 +7511,11 @@
       <c r="G98">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>783</v>
       </c>
@@ -7220,8 +7537,11 @@
       <c r="G99">
         <v>42.86</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>785</v>
       </c>
@@ -7243,8 +7563,11 @@
       <c r="G100">
         <v>20.57</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>787</v>
       </c>
@@ -7266,8 +7589,11 @@
       <c r="G101">
         <v>88.73</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>787</v>
       </c>
@@ -7289,8 +7615,11 @@
       <c r="G102">
         <v>79.94</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>790</v>
       </c>
@@ -7312,8 +7641,11 @@
       <c r="G103">
         <v>27.35</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>792</v>
       </c>
@@ -7335,8 +7667,11 @@
       <c r="G104">
         <v>17.75</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>794</v>
       </c>
@@ -7358,8 +7693,11 @@
       <c r="G105">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>796</v>
       </c>
@@ -7381,8 +7719,11 @@
       <c r="G106">
         <v>49.67</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>798</v>
       </c>
@@ -7404,8 +7745,11 @@
       <c r="G107">
         <v>48.55</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>798</v>
       </c>
@@ -7427,8 +7771,11 @@
       <c r="G108">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>801</v>
       </c>
@@ -7450,8 +7797,11 @@
       <c r="G109">
         <v>18.440000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>803</v>
       </c>
@@ -7473,8 +7823,11 @@
       <c r="G110">
         <v>67.430000000000007</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>805</v>
       </c>
@@ -7496,8 +7849,11 @@
       <c r="G111">
         <v>23.21</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>807</v>
       </c>
@@ -7519,8 +7875,11 @@
       <c r="G112">
         <v>71.650000000000006</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>809</v>
       </c>
@@ -7542,8 +7901,11 @@
       <c r="G113">
         <v>28.99</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>811</v>
       </c>
@@ -7565,8 +7927,11 @@
       <c r="G114">
         <v>38</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>813</v>
       </c>
@@ -7588,8 +7953,11 @@
       <c r="G115">
         <v>51.69</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>815</v>
       </c>
@@ -7611,8 +7979,11 @@
       <c r="G116">
         <v>86.76</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>817</v>
       </c>
@@ -7634,8 +8005,11 @@
       <c r="G117">
         <v>18.079999999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>817</v>
       </c>
@@ -7657,8 +8031,11 @@
       <c r="G118">
         <v>53.73</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>820</v>
       </c>
@@ -7680,8 +8057,11 @@
       <c r="G119">
         <v>61.02</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H119" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>822</v>
       </c>
@@ -7703,8 +8083,11 @@
       <c r="G120">
         <v>51.24</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H120" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>824</v>
       </c>
@@ -7726,8 +8109,11 @@
       <c r="G121">
         <v>77</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H121" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>826</v>
       </c>
@@ -7749,8 +8135,11 @@
       <c r="G122">
         <v>24.51</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H122" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>828</v>
       </c>
@@ -7772,8 +8161,11 @@
       <c r="G123">
         <v>81.81</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H123" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>830</v>
       </c>
@@ -7795,8 +8187,11 @@
       <c r="G124">
         <v>43.34</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H124" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>832</v>
       </c>
@@ -7818,8 +8213,11 @@
       <c r="G125">
         <v>31.27</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H125" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>834</v>
       </c>
@@ -7841,8 +8239,11 @@
       <c r="G126">
         <v>31.86</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H126" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>836</v>
       </c>
@@ -7864,8 +8265,11 @@
       <c r="G127">
         <v>30.81</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H127" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>838</v>
       </c>
@@ -7887,8 +8291,11 @@
       <c r="G128">
         <v>67.290000000000006</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>840</v>
       </c>
@@ -7910,8 +8317,11 @@
       <c r="G129">
         <v>53.29</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>842</v>
       </c>
@@ -7933,8 +8343,11 @@
       <c r="G130">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>844</v>
       </c>
@@ -7956,8 +8369,11 @@
       <c r="G131">
         <v>87.66</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H131" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>846</v>
       </c>
@@ -7979,8 +8395,11 @@
       <c r="G132">
         <v>31.35</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>848</v>
       </c>
@@ -8002,8 +8421,11 @@
       <c r="G133">
         <v>82.92</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H133" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>850</v>
       </c>
@@ -8025,8 +8447,11 @@
       <c r="G134">
         <v>48.47</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>852</v>
       </c>
@@ -8048,8 +8473,11 @@
       <c r="G135">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>854</v>
       </c>
@@ -8071,8 +8499,11 @@
       <c r="G136">
         <v>53.42</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H136" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>856</v>
       </c>
@@ -8094,8 +8525,11 @@
       <c r="G137">
         <v>68.510000000000005</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>858</v>
       </c>
@@ -8117,8 +8551,11 @@
       <c r="G138">
         <v>91.51</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>860</v>
       </c>
@@ -8140,8 +8577,11 @@
       <c r="G139">
         <v>26.86</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H139" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>862</v>
       </c>
@@ -8163,8 +8603,11 @@
       <c r="G140">
         <v>37.49</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H140" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>862</v>
       </c>
@@ -8186,8 +8629,11 @@
       <c r="G141">
         <v>53.76</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H141" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>865</v>
       </c>
@@ -8209,8 +8655,11 @@
       <c r="G142">
         <v>35.67</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H142" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>867</v>
       </c>
@@ -8232,8 +8681,11 @@
       <c r="G143">
         <v>40.14</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H143" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>869</v>
       </c>
@@ -8255,8 +8707,11 @@
       <c r="G144">
         <v>41.23</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H144" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>871</v>
       </c>
@@ -8278,8 +8733,11 @@
       <c r="G145">
         <v>82.82</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H145" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>871</v>
       </c>
@@ -8301,8 +8759,11 @@
       <c r="G146">
         <v>42.98</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H146" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>874</v>
       </c>
@@ -8324,8 +8785,11 @@
       <c r="G147">
         <v>32.29</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H147" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>876</v>
       </c>
@@ -8347,8 +8811,11 @@
       <c r="G148">
         <v>37.22</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H148" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>878</v>
       </c>
@@ -8370,8 +8837,11 @@
       <c r="G149">
         <v>57.51</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H149" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>880</v>
       </c>
@@ -8393,8 +8863,11 @@
       <c r="G150">
         <v>93.17</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H150" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>882</v>
       </c>
@@ -8416,8 +8889,11 @@
       <c r="G151">
         <v>59.24</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H151" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>884</v>
       </c>
@@ -8439,8 +8915,11 @@
       <c r="G152">
         <v>73.209999999999994</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H152" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>886</v>
       </c>
@@ -8462,8 +8941,11 @@
       <c r="G153">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H153" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>888</v>
       </c>
@@ -8485,8 +8967,11 @@
       <c r="G154">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H154" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>890</v>
       </c>
@@ -8508,8 +8993,11 @@
       <c r="G155">
         <v>21.84</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H155" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>892</v>
       </c>
@@ -8531,8 +9019,11 @@
       <c r="G156">
         <v>31.55</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H156" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>892</v>
       </c>
@@ -8554,8 +9045,11 @@
       <c r="G157">
         <v>70.16</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H157" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>895</v>
       </c>
@@ -8577,8 +9071,11 @@
       <c r="G158">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H158" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>897</v>
       </c>
@@ -8600,8 +9097,11 @@
       <c r="G159">
         <v>15.18</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H159" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>899</v>
       </c>
@@ -8623,8 +9123,11 @@
       <c r="G160">
         <v>58.72</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H160" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>901</v>
       </c>
@@ -8646,8 +9149,11 @@
       <c r="G161">
         <v>47.61</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H161" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>901</v>
       </c>
@@ -8669,8 +9175,11 @@
       <c r="G162">
         <v>98.18</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H162" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>901</v>
       </c>
@@ -8692,8 +9201,11 @@
       <c r="G163">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H163" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>901</v>
       </c>
@@ -8715,8 +9227,11 @@
       <c r="G164">
         <v>71.62</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H164" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>906</v>
       </c>
@@ -8738,8 +9253,11 @@
       <c r="G165">
         <v>18.989999999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H165" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>908</v>
       </c>
@@ -8761,8 +9279,11 @@
       <c r="G166">
         <v>51.61</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H166" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>910</v>
       </c>
@@ -8784,8 +9305,11 @@
       <c r="G167">
         <v>66.489999999999995</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H167" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>910</v>
       </c>
@@ -8807,8 +9331,11 @@
       <c r="G168">
         <v>38.29</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H168" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>913</v>
       </c>
@@ -8830,8 +9357,11 @@
       <c r="G169">
         <v>10.24</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H169" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>913</v>
       </c>
@@ -8853,8 +9383,11 @@
       <c r="G170">
         <v>25.64</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H170" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>913</v>
       </c>
@@ -8876,8 +9409,11 @@
       <c r="G171">
         <v>68.959999999999994</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H171" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>913</v>
       </c>
@@ -8899,8 +9435,11 @@
       <c r="G172">
         <v>24.82</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H172" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>913</v>
       </c>
@@ -8922,8 +9461,11 @@
       <c r="G173">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H173" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>913</v>
       </c>
@@ -8945,8 +9487,11 @@
       <c r="G174">
         <v>95.43</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H174" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>920</v>
       </c>
@@ -8968,8 +9513,11 @@
       <c r="G175">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H175" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>922</v>
       </c>
@@ -8991,8 +9539,11 @@
       <c r="G176">
         <v>36.24</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H176" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>924</v>
       </c>
@@ -9014,8 +9565,11 @@
       <c r="G177">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H177" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>926</v>
       </c>
@@ -9037,8 +9591,11 @@
       <c r="G178">
         <v>95.67</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H178" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>928</v>
       </c>
@@ -9060,8 +9617,11 @@
       <c r="G179">
         <v>29.08</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H179" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>930</v>
       </c>
@@ -9083,8 +9643,11 @@
       <c r="G180">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H180" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>932</v>
       </c>
@@ -9106,8 +9669,11 @@
       <c r="G181">
         <v>44.94</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H181" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>934</v>
       </c>
@@ -9129,8 +9695,11 @@
       <c r="G182">
         <v>40.97</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H182" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>936</v>
       </c>
@@ -9152,8 +9721,11 @@
       <c r="G183">
         <v>20.350000000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H183" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>938</v>
       </c>
@@ -9175,8 +9747,11 @@
       <c r="G184">
         <v>97.33</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H184" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>940</v>
       </c>
@@ -9198,8 +9773,11 @@
       <c r="G185">
         <v>83.63</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H185" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>942</v>
       </c>
@@ -9221,8 +9799,11 @@
       <c r="G186">
         <v>27.65</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H186" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>942</v>
       </c>
@@ -9244,8 +9825,11 @@
       <c r="G187">
         <v>70.569999999999993</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H187" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>945</v>
       </c>
@@ -9267,8 +9851,11 @@
       <c r="G188">
         <v>85.33</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H188" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>945</v>
       </c>
@@ -9290,8 +9877,11 @@
       <c r="G189">
         <v>28.17</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H189" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>945</v>
       </c>
@@ -9313,8 +9903,11 @@
       <c r="G190">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H190" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>949</v>
       </c>
@@ -9336,8 +9929,11 @@
       <c r="G191">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H191" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>949</v>
       </c>
@@ -9359,8 +9955,11 @@
       <c r="G192">
         <v>20.87</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H192" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>949</v>
       </c>
@@ -9382,8 +9981,11 @@
       <c r="G193">
         <v>91.31</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H193" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>949</v>
       </c>
@@ -9405,8 +10007,11 @@
       <c r="G194">
         <v>98.02</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H194" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>949</v>
       </c>
@@ -9428,8 +10033,11 @@
       <c r="G195">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H195" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>955</v>
       </c>
@@ -9451,8 +10059,11 @@
       <c r="G196">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H196" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>957</v>
       </c>
@@ -9474,8 +10085,11 @@
       <c r="G197">
         <v>25.32</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H197" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>959</v>
       </c>
@@ -9497,8 +10111,11 @@
       <c r="G198">
         <v>80.540000000000006</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H198" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>961</v>
       </c>
@@ -9520,8 +10137,11 @@
       <c r="G199">
         <v>10.42</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H199" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>961</v>
       </c>
@@ -9543,8 +10163,11 @@
       <c r="G200">
         <v>49.02</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H200" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>964</v>
       </c>
@@ -9566,8 +10189,11 @@
       <c r="G201">
         <v>57.11</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H201" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>966</v>
       </c>
@@ -9589,8 +10215,11 @@
       <c r="G202">
         <v>53.75</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H202" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>968</v>
       </c>
@@ -9612,8 +10241,11 @@
       <c r="G203">
         <v>93.24</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H203" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>970</v>
       </c>
@@ -9635,8 +10267,11 @@
       <c r="G204">
         <v>73.89</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H204" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>972</v>
       </c>
@@ -9658,8 +10293,11 @@
       <c r="G205">
         <v>14.38</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H205" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>974</v>
       </c>
@@ -9681,8 +10319,11 @@
       <c r="G206">
         <v>96.69</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H206" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>974</v>
       </c>
@@ -9704,8 +10345,11 @@
       <c r="G207">
         <v>2.96</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H207" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>974</v>
       </c>
@@ -9727,8 +10371,11 @@
       <c r="G208">
         <v>68.89</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H208" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>978</v>
       </c>
@@ -9750,8 +10397,11 @@
       <c r="G209">
         <v>78.14</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H209" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>980</v>
       </c>
@@ -9773,8 +10423,11 @@
       <c r="G210">
         <v>66.55</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H210" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>982</v>
       </c>
@@ -9796,8 +10449,11 @@
       <c r="G211">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H211" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>984</v>
       </c>
@@ -9819,8 +10475,11 @@
       <c r="G212">
         <v>75.98</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H212" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>986</v>
       </c>
@@ -9842,8 +10501,11 @@
       <c r="G213">
         <v>73.45</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H213" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>988</v>
       </c>
@@ -9865,8 +10527,11 @@
       <c r="G214">
         <v>16.940000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H214" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>990</v>
       </c>
@@ -9888,8 +10553,11 @@
       <c r="G215">
         <v>71.28</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H215" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>992</v>
       </c>
@@ -9911,8 +10579,11 @@
       <c r="G216">
         <v>27.71</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H216" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>994</v>
       </c>
@@ -9934,8 +10605,11 @@
       <c r="G217">
         <v>71.010000000000005</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H217" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>996</v>
       </c>
@@ -9957,8 +10631,11 @@
       <c r="G218">
         <v>72.010000000000005</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H218" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>998</v>
       </c>
@@ -9980,8 +10657,11 @@
       <c r="G219">
         <v>60.94</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H219" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1000</v>
       </c>
@@ -10003,8 +10683,11 @@
       <c r="G220">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H220" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1002</v>
       </c>
@@ -10026,8 +10709,11 @@
       <c r="G221">
         <v>47.42</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H221" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1004</v>
       </c>
@@ -10049,8 +10735,11 @@
       <c r="G222">
         <v>74.31</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H222" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1006</v>
       </c>
@@ -10072,8 +10761,11 @@
       <c r="G223">
         <v>21.71</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H223" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1008</v>
       </c>
@@ -10095,8 +10787,11 @@
       <c r="G224">
         <v>42.14</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>1010</v>
       </c>
@@ -10118,8 +10813,11 @@
       <c r="G225">
         <v>65.319999999999993</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1012</v>
       </c>
@@ -10141,8 +10839,11 @@
       <c r="G226">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1012</v>
       </c>
@@ -10164,8 +10865,11 @@
       <c r="G227">
         <v>12.35</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1015</v>
       </c>
@@ -10187,8 +10891,11 @@
       <c r="G228">
         <v>35.78</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H228" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1017</v>
       </c>
@@ -10210,8 +10917,11 @@
       <c r="G229">
         <v>12.72</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H229" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1019</v>
       </c>
@@ -10233,8 +10943,11 @@
       <c r="G230">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H230" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1021</v>
       </c>
@@ -10256,8 +10969,11 @@
       <c r="G231">
         <v>56.63</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H231" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1023</v>
       </c>
@@ -10279,8 +10995,11 @@
       <c r="G232">
         <v>45.95</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H232" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1025</v>
       </c>
@@ -10302,8 +11021,11 @@
       <c r="G233">
         <v>64.06</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H233" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1027</v>
       </c>
@@ -10325,8 +11047,11 @@
       <c r="G234">
         <v>75.86</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H234" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1029</v>
       </c>
@@ -10348,8 +11073,11 @@
       <c r="G235">
         <v>71.540000000000006</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H235" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1031</v>
       </c>
@@ -10371,8 +11099,11 @@
       <c r="G236">
         <v>26.72</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H236" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1033</v>
       </c>
@@ -10394,8 +11125,11 @@
       <c r="G237">
         <v>36.119999999999997</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H237" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1035</v>
       </c>
@@ -10417,8 +11151,11 @@
       <c r="G238">
         <v>82.46</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H238" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1037</v>
       </c>
@@ -10440,8 +11177,11 @@
       <c r="G239">
         <v>22</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H239" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1039</v>
       </c>
@@ -10463,8 +11203,11 @@
       <c r="G240">
         <v>35.89</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H240" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1041</v>
       </c>
@@ -10486,8 +11229,11 @@
       <c r="G241">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H241" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1043</v>
       </c>
@@ -10509,8 +11255,11 @@
       <c r="G242">
         <v>54.42</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H242" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1043</v>
       </c>
@@ -10532,8 +11281,11 @@
       <c r="G243">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H243" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1043</v>
       </c>
@@ -10555,8 +11307,11 @@
       <c r="G244">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H244" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1047</v>
       </c>
@@ -10578,8 +11333,11 @@
       <c r="G245">
         <v>57.83</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H245" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1049</v>
       </c>
@@ -10601,8 +11359,11 @@
       <c r="G246">
         <v>92.31</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H246" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1051</v>
       </c>
@@ -10624,8 +11385,11 @@
       <c r="G247">
         <v>29.96</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H247" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1053</v>
       </c>
@@ -10647,8 +11411,11 @@
       <c r="G248">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H248" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1055</v>
       </c>
@@ -10670,8 +11437,11 @@
       <c r="G249">
         <v>31.18</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H249" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1057</v>
       </c>
@@ -10693,8 +11463,11 @@
       <c r="G250">
         <v>42.76</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H250" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1059</v>
       </c>
@@ -10716,8 +11489,11 @@
       <c r="G251">
         <v>32.380000000000003</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H251" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1061</v>
       </c>
@@ -10739,8 +11515,11 @@
       <c r="G252">
         <v>31.64</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H252" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1063</v>
       </c>
@@ -10762,8 +11541,11 @@
       <c r="G253">
         <v>6.42</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H253" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1065</v>
       </c>
@@ -10785,8 +11567,11 @@
       <c r="G254">
         <v>22.57</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H254" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1065</v>
       </c>
@@ -10808,8 +11593,11 @@
       <c r="G255">
         <v>48.08</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H255" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1068</v>
       </c>
@@ -10831,8 +11619,11 @@
       <c r="G256">
         <v>27.72</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H256" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1070</v>
       </c>
@@ -10854,8 +11645,11 @@
       <c r="G257">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H257" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1072</v>
       </c>
@@ -10877,8 +11671,11 @@
       <c r="G258">
         <v>13.97</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H258" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1074</v>
       </c>
@@ -10900,8 +11697,11 @@
       <c r="G259">
         <v>19.239999999999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H259" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1076</v>
       </c>
@@ -10923,8 +11723,11 @@
       <c r="G260">
         <v>37.619999999999997</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H260" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1078</v>
       </c>
@@ -10946,8 +11749,11 @@
       <c r="G261">
         <v>12.33</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H261" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1080</v>
       </c>
@@ -10969,8 +11775,11 @@
       <c r="G262">
         <v>8.39</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H262" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1082</v>
       </c>
@@ -10992,8 +11801,11 @@
       <c r="G263">
         <v>74.03</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H263" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1084</v>
       </c>
@@ -11015,8 +11827,11 @@
       <c r="G264">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H264" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1086</v>
       </c>
@@ -11038,8 +11853,11 @@
       <c r="G265">
         <v>23.77</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H265" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1086</v>
       </c>
@@ -11061,8 +11879,11 @@
       <c r="G266">
         <v>97.63</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H266" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1089</v>
       </c>
@@ -11084,8 +11905,11 @@
       <c r="G267">
         <v>61.42</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H267" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1091</v>
       </c>
@@ -11107,8 +11931,11 @@
       <c r="G268">
         <v>20.39</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H268" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1093</v>
       </c>
@@ -11130,8 +11957,11 @@
       <c r="G269">
         <v>19.09</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H269" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1095</v>
       </c>
@@ -11153,8 +11983,11 @@
       <c r="G270">
         <v>39.020000000000003</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H270" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1097</v>
       </c>
@@ -11176,8 +12009,11 @@
       <c r="G271">
         <v>58.85</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H271" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1099</v>
       </c>
@@ -11199,8 +12035,11 @@
       <c r="G272">
         <v>7.69</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H272" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1101</v>
       </c>
@@ -11222,8 +12061,11 @@
       <c r="G273">
         <v>52.26</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H273" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1103</v>
       </c>
@@ -11245,8 +12087,11 @@
       <c r="G274">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H274" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1105</v>
       </c>
@@ -11268,8 +12113,11 @@
       <c r="G275">
         <v>56.25</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H275" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1105</v>
       </c>
@@ -11291,8 +12139,11 @@
       <c r="G276">
         <v>41.77</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H276" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1108</v>
       </c>
@@ -11314,8 +12165,11 @@
       <c r="G277">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H277" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1110</v>
       </c>
@@ -11337,8 +12191,11 @@
       <c r="G278">
         <v>10.72</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H278" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1112</v>
       </c>
@@ -11360,8 +12217,11 @@
       <c r="G279">
         <v>65.72</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H279" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1114</v>
       </c>
@@ -11383,8 +12243,11 @@
       <c r="G280">
         <v>10.64</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H280" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1114</v>
       </c>
@@ -11406,8 +12269,11 @@
       <c r="G281">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H281" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1117</v>
       </c>
@@ -11429,8 +12295,11 @@
       <c r="G282">
         <v>72.459999999999994</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H282" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1119</v>
       </c>
@@ -11452,8 +12321,11 @@
       <c r="G283">
         <v>53.59</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H283" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1121</v>
       </c>
@@ -11475,8 +12347,11 @@
       <c r="G284">
         <v>77.09</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H284" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1123</v>
       </c>
@@ -11498,8 +12373,11 @@
       <c r="G285">
         <v>51.74</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H285" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1125</v>
       </c>
@@ -11521,8 +12399,11 @@
       <c r="G286">
         <v>23.82</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H286" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1127</v>
       </c>
@@ -11544,8 +12425,11 @@
       <c r="G287">
         <v>91.36</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H287" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1129</v>
       </c>
@@ -11567,8 +12451,11 @@
       <c r="G288">
         <v>91.17</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H288" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1131</v>
       </c>
@@ -11590,8 +12477,11 @@
       <c r="G289">
         <v>71.67</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H289" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1133</v>
       </c>
@@ -11613,8 +12503,11 @@
       <c r="G290">
         <v>22.61</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H290" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1135</v>
       </c>
@@ -11636,8 +12529,11 @@
       <c r="G291">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H291" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1137</v>
       </c>
@@ -11659,8 +12555,11 @@
       <c r="G292">
         <v>35.979999999999997</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H292" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1139</v>
       </c>
@@ -11682,8 +12581,11 @@
       <c r="G293">
         <v>59.44</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H293" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1141</v>
       </c>
@@ -11705,8 +12607,11 @@
       <c r="G294">
         <v>81.349999999999994</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H294" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1143</v>
       </c>
@@ -11728,8 +12633,11 @@
       <c r="G295">
         <v>43.43</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H295" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1145</v>
       </c>
@@ -11751,8 +12659,11 @@
       <c r="G296">
         <v>92.44</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H296" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1147</v>
       </c>
@@ -11774,8 +12685,11 @@
       <c r="G297">
         <v>26.95</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H297" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1149</v>
       </c>
@@ -11797,8 +12711,11 @@
       <c r="G298">
         <v>12.53</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H298" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1151</v>
       </c>
@@ -11820,8 +12737,11 @@
       <c r="G299">
         <v>95.98</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H299" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1149</v>
       </c>
@@ -11843,8 +12763,11 @@
       <c r="G300">
         <v>46.08</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H300" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1154</v>
       </c>
@@ -11866,8 +12789,11 @@
       <c r="G301">
         <v>50.66</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H301" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1156</v>
       </c>
@@ -11889,8 +12815,11 @@
       <c r="G302">
         <v>73.23</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H302" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1158</v>
       </c>
@@ -11912,8 +12841,11 @@
       <c r="G303">
         <v>51.16</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H303" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1160</v>
       </c>
@@ -11935,8 +12867,11 @@
       <c r="G304">
         <v>40.25</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H304" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1149</v>
       </c>
@@ -11958,8 +12893,11 @@
       <c r="G305">
         <v>58.79</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H305" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1149</v>
       </c>
@@ -11981,8 +12919,11 @@
       <c r="G306">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H306" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1149</v>
       </c>
@@ -12004,8 +12945,11 @@
       <c r="G307">
         <v>37.630000000000003</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H307" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1165</v>
       </c>
@@ -12027,8 +12971,11 @@
       <c r="G308">
         <v>51.67</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H308" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1149</v>
       </c>
@@ -12050,8 +12997,11 @@
       <c r="G309">
         <v>53.88</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H309" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1149</v>
       </c>
@@ -12073,8 +13023,11 @@
       <c r="G310">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H310" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1149</v>
       </c>
@@ -12096,8 +13049,11 @@
       <c r="G311">
         <v>69.290000000000006</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H311" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1149</v>
       </c>
@@ -12119,8 +13075,11 @@
       <c r="G312">
         <v>17.079999999999998</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H312" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1149</v>
       </c>
@@ -12142,8 +13101,11 @@
       <c r="G313">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H313" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1172</v>
       </c>
@@ -12165,8 +13127,11 @@
       <c r="G314">
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H314" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1149</v>
       </c>
@@ -12188,8 +13153,11 @@
       <c r="G315">
         <v>28.24</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H315" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1175</v>
       </c>
@@ -12211,8 +13179,11 @@
       <c r="G316">
         <v>27.42</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H316" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1149</v>
       </c>
@@ -12234,8 +13205,11 @@
       <c r="G317">
         <v>87.47</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H317" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1178</v>
       </c>
@@ -12257,8 +13231,11 @@
       <c r="G318">
         <v>38.17</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H318" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1180</v>
       </c>
@@ -12280,8 +13257,11 @@
       <c r="G319">
         <v>18.87</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H319" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1149</v>
       </c>
@@ -12303,8 +13283,11 @@
       <c r="G320">
         <v>31.11</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H320" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1149</v>
       </c>
@@ -12326,8 +13309,11 @@
       <c r="G321">
         <v>61.42</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H321" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1184</v>
       </c>
@@ -12349,8 +13335,11 @@
       <c r="G322">
         <v>22.32</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H322" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1186</v>
       </c>
@@ -12372,8 +13361,11 @@
       <c r="G323">
         <v>68.88</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H323" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1188</v>
       </c>
@@ -12395,8 +13387,11 @@
       <c r="G324">
         <v>87.18</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H324" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1190</v>
       </c>
@@ -12418,8 +13413,11 @@
       <c r="G325">
         <v>35.72</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H325" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1192</v>
       </c>
@@ -12441,8 +13439,11 @@
       <c r="G326">
         <v>53.71</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H326" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1194</v>
       </c>
@@ -12464,8 +13465,11 @@
       <c r="G327">
         <v>41.47</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H327" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1196</v>
       </c>
@@ -12487,8 +13491,11 @@
       <c r="G328">
         <v>71.81</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H328" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1149</v>
       </c>
@@ -12510,8 +13517,11 @@
       <c r="G329">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H329" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1199</v>
       </c>
@@ -12533,8 +13543,11 @@
       <c r="G330">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H330" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1201</v>
       </c>
@@ -12556,8 +13569,11 @@
       <c r="G331">
         <v>73.239999999999995</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H331" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1149</v>
       </c>
@@ -12579,8 +13595,11 @@
       <c r="G332">
         <v>28.72</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H332" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1204</v>
       </c>
@@ -12602,8 +13621,11 @@
       <c r="G333">
         <v>85.47</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H333" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1149</v>
       </c>
@@ -12625,8 +13647,11 @@
       <c r="G334">
         <v>56.55</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H334" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1207</v>
       </c>
@@ -12648,8 +13673,11 @@
       <c r="G335">
         <v>63.44</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H335" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1149</v>
       </c>
@@ -12671,8 +13699,11 @@
       <c r="G336">
         <v>22.62</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H336" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1210</v>
       </c>
@@ -12694,8 +13725,11 @@
       <c r="G337">
         <v>83.09</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H337" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1212</v>
       </c>
@@ -12717,8 +13751,11 @@
       <c r="G338">
         <v>50.65</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H338" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1214</v>
       </c>
@@ -12740,8 +13777,11 @@
       <c r="G339">
         <v>59.44</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H339" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1216</v>
       </c>
@@ -12763,8 +13803,11 @@
       <c r="G340">
         <v>93.42</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H340" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1218</v>
       </c>
@@ -12786,8 +13829,11 @@
       <c r="G341">
         <v>95.75</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H341" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1220</v>
       </c>
@@ -12809,8 +13855,11 @@
       <c r="G342">
         <v>49.94</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H342" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1222</v>
       </c>
@@ -12832,8 +13881,11 @@
       <c r="G343">
         <v>78.02</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H343" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1224</v>
       </c>
@@ -12855,8 +13907,11 @@
       <c r="G344">
         <v>17.59</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H344" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1226</v>
       </c>
@@ -12878,8 +13933,11 @@
       <c r="G345">
         <v>39.18</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H345" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1228</v>
       </c>
@@ -12901,8 +13959,11 @@
       <c r="G346">
         <v>41.38</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H346" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1230</v>
       </c>
@@ -12924,8 +13985,11 @@
       <c r="G347">
         <v>47.33</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H347" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1232</v>
       </c>
@@ -12947,8 +14011,11 @@
       <c r="G348">
         <v>91.65</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H348" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1234</v>
       </c>
@@ -12970,8 +14037,11 @@
       <c r="G349">
         <v>47.11</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H349" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1236</v>
       </c>
@@ -12993,8 +14063,11 @@
       <c r="G350">
         <v>22.31</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H350" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1238</v>
       </c>
@@ -13016,8 +14089,11 @@
       <c r="G351">
         <v>53.05</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H351" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1240</v>
       </c>
@@ -13039,8 +14115,11 @@
       <c r="G352">
         <v>19.809999999999999</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H352" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1242</v>
       </c>
@@ -13062,8 +14141,11 @@
       <c r="G353">
         <v>76.39</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H353" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1244</v>
       </c>
@@ -13085,8 +14167,11 @@
       <c r="G354">
         <v>34.86</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H354" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1246</v>
       </c>
@@ -13108,8 +14193,11 @@
       <c r="G355">
         <v>57.59</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H355" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>622</v>
       </c>
@@ -13131,8 +14219,11 @@
       <c r="G356">
         <v>10.69</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H356" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1249</v>
       </c>
@@ -13154,8 +14245,11 @@
       <c r="G357">
         <v>41.07</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H357" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1251</v>
       </c>
@@ -13177,8 +14271,11 @@
       <c r="G358">
         <v>63.85</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H358" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1149</v>
       </c>
@@ -13200,8 +14297,11 @@
       <c r="G359">
         <v>82.77</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H359" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1254</v>
       </c>
@@ -13223,8 +14323,11 @@
       <c r="G360">
         <v>48.19</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H360" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1256</v>
       </c>
@@ -13246,8 +14349,11 @@
       <c r="G361">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H361" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1258</v>
       </c>
@@ -13269,8 +14375,11 @@
       <c r="G362">
         <v>59.21</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H362" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1260</v>
       </c>
@@ -13292,8 +14401,11 @@
       <c r="G363">
         <v>34.450000000000003</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H363" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1262</v>
       </c>
@@ -13315,8 +14427,11 @@
       <c r="G364">
         <v>38.49</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H364" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>677</v>
       </c>
@@ -13338,8 +14453,11 @@
       <c r="G365">
         <v>87.96</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H365" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>685</v>
       </c>
@@ -13361,8 +14479,11 @@
       <c r="G366">
         <v>52.31</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H366" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1266</v>
       </c>
@@ -13384,8 +14505,11 @@
       <c r="G367">
         <v>71.56</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H367" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>707</v>
       </c>
@@ -13407,8 +14531,11 @@
       <c r="G368">
         <v>59.63</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H368" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>710</v>
       </c>
@@ -13430,8 +14557,11 @@
       <c r="G369">
         <v>85.93</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H369" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1149</v>
       </c>
@@ -13453,8 +14583,11 @@
       <c r="G370">
         <v>60.76</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H370" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1149</v>
       </c>
@@ -13476,8 +14609,11 @@
       <c r="G371">
         <v>28.58</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H371" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1272</v>
       </c>
@@ -13499,8 +14635,11 @@
       <c r="G372">
         <v>53.04</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H372" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1149</v>
       </c>
@@ -13522,8 +14661,11 @@
       <c r="G373">
         <v>72.02</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H373" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>751</v>
       </c>
@@ -13545,8 +14687,11 @@
       <c r="G374">
         <v>86.08</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H374" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1276</v>
       </c>
@@ -13568,8 +14713,11 @@
       <c r="G375">
         <v>57.61</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H375" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1149</v>
       </c>
@@ -13591,8 +14739,11 @@
       <c r="G376">
         <v>52.34</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H376" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1279</v>
       </c>
@@ -13614,8 +14765,11 @@
       <c r="G377">
         <v>57.14</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H377" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1281</v>
       </c>
@@ -13637,8 +14791,11 @@
       <c r="G378">
         <v>31.14</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H378" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1283</v>
       </c>
@@ -13660,8 +14817,11 @@
       <c r="G379">
         <v>62.57</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H379" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1285</v>
       </c>
@@ -13683,8 +14843,11 @@
       <c r="G380">
         <v>68.650000000000006</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H380" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1287</v>
       </c>
@@ -13706,8 +14869,11 @@
       <c r="G381">
         <v>84.19</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H381" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1149</v>
       </c>
@@ -13729,8 +14895,11 @@
       <c r="G382">
         <v>68.489999999999995</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H382" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1149</v>
       </c>
@@ -13752,8 +14921,11 @@
       <c r="G383">
         <v>76.53</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H383" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1291</v>
       </c>
@@ -13775,8 +14947,11 @@
       <c r="G384">
         <v>52.75</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H384" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1149</v>
       </c>
@@ -13798,8 +14973,11 @@
       <c r="G385">
         <v>53.92</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H385" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>822</v>
       </c>
@@ -13821,8 +14999,11 @@
       <c r="G386">
         <v>50.74</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H386" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1295</v>
       </c>
@@ -13844,8 +15025,11 @@
       <c r="G387">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H387" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1149</v>
       </c>
@@ -13867,8 +15051,11 @@
       <c r="G388">
         <v>50.76</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H388" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1149</v>
       </c>
@@ -13890,8 +15077,11 @@
       <c r="G389">
         <v>50.74</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H389" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>856</v>
       </c>
@@ -13913,8 +15103,11 @@
       <c r="G390">
         <v>69.25</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H390" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>867</v>
       </c>
@@ -13936,8 +15129,11 @@
       <c r="G391">
         <v>39.64</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H391" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1149</v>
       </c>
@@ -13959,8 +15155,11 @@
       <c r="G392">
         <v>58</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H392" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>886</v>
       </c>
@@ -13982,8 +15181,11 @@
       <c r="G393">
         <v>33.369999999999997</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H393" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>888</v>
       </c>
@@ -14005,8 +15207,11 @@
       <c r="G394">
         <v>73.790000000000006</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H394" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1304</v>
       </c>
@@ -14028,8 +15233,11 @@
       <c r="G395">
         <v>56.44</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H395" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1149</v>
       </c>
@@ -14051,8 +15259,11 @@
       <c r="G396">
         <v>59.24</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H396" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1307</v>
       </c>
@@ -14074,8 +15285,11 @@
       <c r="G397">
         <v>51.63</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H397" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1309</v>
       </c>
@@ -14097,8 +15311,11 @@
       <c r="G398">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H398" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1311</v>
       </c>
@@ -14120,8 +15337,11 @@
       <c r="G399">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H399" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>926</v>
       </c>
@@ -14143,8 +15363,11 @@
       <c r="G400">
         <v>95.66</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H400" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1149</v>
       </c>
@@ -14166,8 +15389,11 @@
       <c r="G401">
         <v>44.56</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H401" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1315</v>
       </c>
@@ -14189,8 +15415,11 @@
       <c r="G402">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H402" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>938</v>
       </c>
@@ -14212,8 +15441,11 @@
       <c r="G403">
         <v>97.09</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H403" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1318</v>
       </c>
@@ -14235,8 +15467,11 @@
       <c r="G404">
         <v>26.25</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H404" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1320</v>
       </c>
@@ -14258,8 +15493,11 @@
       <c r="G405">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H405" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1322</v>
       </c>
@@ -14281,8 +15519,11 @@
       <c r="G406">
         <v>66.42</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H406" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1149</v>
       </c>
@@ -14304,8 +15545,11 @@
       <c r="G407">
         <v>83.16</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H407" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1149</v>
       </c>
@@ -14327,8 +15571,11 @@
       <c r="G408">
         <v>72.06</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H408" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1149</v>
       </c>
@@ -14350,8 +15597,11 @@
       <c r="G409">
         <v>58.89</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H409" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1149</v>
       </c>
@@ -14373,8 +15623,11 @@
       <c r="G410">
         <v>57.41</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H410" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1027</v>
       </c>
@@ -14396,8 +15649,11 @@
       <c r="G411">
         <v>74.84</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H411" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1029</v>
       </c>
@@ -14419,8 +15675,11 @@
       <c r="G412">
         <v>69.819999999999993</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H412" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1031</v>
       </c>
@@ -14442,8 +15701,11 @@
       <c r="G413">
         <v>28.92</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H413" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1047</v>
       </c>
@@ -14465,8 +15727,11 @@
       <c r="G414">
         <v>58.44</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H414" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1332</v>
       </c>
@@ -14488,8 +15753,11 @@
       <c r="G415">
         <v>92.2</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H415" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1051</v>
       </c>
@@ -14511,8 +15779,11 @@
       <c r="G416">
         <v>29.95</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H416" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1055</v>
       </c>
@@ -14534,8 +15805,11 @@
       <c r="G417">
         <v>32.840000000000003</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H417" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1059</v>
       </c>
@@ -14557,8 +15831,11 @@
       <c r="G418">
         <v>31.32</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H418" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1063</v>
       </c>
@@ -14580,8 +15857,11 @@
       <c r="G419">
         <v>39.33</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H419" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1065</v>
       </c>
@@ -14603,8 +15883,11 @@
       <c r="G420">
         <v>48.48</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H420" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1072</v>
       </c>
@@ -14626,8 +15909,11 @@
       <c r="G421">
         <v>53.02</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H421" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1074</v>
       </c>
@@ -14649,8 +15935,11 @@
       <c r="G422">
         <v>19.47</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H422" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1341</v>
       </c>
@@ -14672,8 +15961,11 @@
       <c r="G423">
         <v>23.76</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H423" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1343</v>
       </c>
@@ -14695,8 +15987,11 @@
       <c r="G424">
         <v>74.81</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H424" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1345</v>
       </c>
@@ -14718,8 +16013,11 @@
       <c r="G425">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H425" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1108</v>
       </c>
@@ -14741,8 +16039,11 @@
       <c r="G426">
         <v>69.989999999999995</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H426" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1348</v>
       </c>
@@ -14764,8 +16065,11 @@
       <c r="G427">
         <v>67.12</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H427" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1114</v>
       </c>
@@ -14787,8 +16091,11 @@
       <c r="G428">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H428" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1117</v>
       </c>
@@ -14810,8 +16117,11 @@
       <c r="G429">
         <v>72.52</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H429" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1352</v>
       </c>
@@ -14833,8 +16143,11 @@
       <c r="G430">
         <v>63.96</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H430" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1354</v>
       </c>
@@ -14856,8 +16169,11 @@
       <c r="G431">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H431" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1356</v>
       </c>
@@ -14878,6 +16194,9 @@
       </c>
       <c r="G432">
         <v>91.6</v>
+      </c>
+      <c r="H432" t="s">
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
@@ -17844,7 +19163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -23756,112 +25075,112 @@
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>1385</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>151017991</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="F8" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="H8" s="19">
         <v>-0.103703</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>1.2123189600000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
         <v>826</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" t="s">
         <v>827</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9">
         <v>44255643</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="F9" t="s">
+        <v>628</v>
+      </c>
+      <c r="G9" t="s">
+        <v>614</v>
+      </c>
+      <c r="H9">
         <v>-2.4603099999999999E-2</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>1.8051375200000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s">
         <v>1021</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" t="s">
         <v>1022</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10">
         <v>15</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10">
         <v>62394264</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="F10" t="s">
+        <v>614</v>
+      </c>
+      <c r="G10" t="s">
+        <v>617</v>
+      </c>
+      <c r="H10">
         <v>-2.0209999999999999E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>1.037305405E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>1043</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>16</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>53800954</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="F11" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" s="16">
         <v>-2.2219099999999999E-2</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>1.50287497E-2</v>
       </c>
     </row>
@@ -23897,58 +25216,58 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>1387</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>219748818</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="F15" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="H15" s="19">
         <v>-1.7675400000000001E-2</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>4.9426466400000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>27730940</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="F16" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="H16" s="16">
         <v>-1.8214399999999999E-2</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>2.1084675000000001E-2</v>
       </c>
     </row>

--- a/Supplementary_files/Supplementary_Tables_1-6.xlsx
+++ b/Supplementary_files/Supplementary_Tables_1-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_Current_reserach\01_Projects\01_PhD_project\isi_t2d\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5A20C-E80F-4ED3-A4A1-12C0DC198457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB0EF9-2C2B-40ED-A7D0-D89A86A31F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8510" yWindow="-14510" windowWidth="34620" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/Supplementary_files/Supplementary_Tables_1-6.xlsx
+++ b/Supplementary_files/Supplementary_Tables_1-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_Current_reserach\01_Projects\01_PhD_project\isi_t2d\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E25351-A143-42E4-B31D-C9CF4D07ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB597EDE-E91F-4720-9251-6C40ECD2C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -4563,7 +4563,18 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4581,18 +4592,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4612,13 +4612,13 @@
   <autoFilter ref="A5:H432" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="nearest_gene"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="index_variant" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="chromosome" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="position_build_37_bp" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="risk_allele" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="index_variant" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="chromosome" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="position_build_37_bp" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="risk_allele" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="other_allele" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="risk_allele_frequency" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{420CD640-CA90-451B-BEE6-DCA4BC998F96}" name="snp consequence type" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="risk_allele_frequency" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{420CD640-CA90-451B-BEE6-DCA4BC998F96}" name="snp consequence type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5005,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -5100,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5109,6 +5109,7 @@
     <col min="2" max="2" width="10.90625" style="26"/>
     <col min="3" max="7" width="10.90625" style="24"/>
     <col min="8" max="8" width="34.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -16252,9 +16253,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Supplementary_files/Supplementary_Tables_1-6.xlsx
+++ b/Supplementary_files/Supplementary_Tables_1-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_Current_reserach\01_Projects\01_PhD_project\isi_t2d\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB597EDE-E91F-4720-9251-6C40ECD2C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A0569-F4F8-4140-A2AE-0877BA635152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4605,6 +4605,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A pie chart with text and numbers&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5FB600-FC6E-ADBA-4DE1-0B37BEC1FBAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="622300"/>
+          <a:ext cx="4273550" cy="2565635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5100,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16254,8 +16303,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Supplementary_files/Supplementary_Tables_1-6.xlsx
+++ b/Supplementary_files/Supplementary_Tables_1-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_Current_reserach\01_Projects\01_PhD_project\isi_t2d\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5A0569-F4F8-4140-A2AE-0877BA635152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846FC09-8B27-4E49-BD21-4DB79353F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="1404">
   <si>
     <t>Indices</t>
   </si>
@@ -4239,13 +4239,25 @@
   </si>
   <si>
     <t>synonymous_variant</t>
+  </si>
+  <si>
+    <t>intergenic_variant</t>
+  </si>
+  <si>
+    <t>downstream_gene_variant</t>
+  </si>
+  <si>
+    <t>missense_variant, splice_region_variant</t>
+  </si>
+  <si>
+    <t>regulatory_region_variant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4303,6 +4315,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4520,7 +4539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4556,6 +4575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5149,8 +5169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5506,8 +5526,8 @@
       <c r="G17" s="24">
         <v>70.55</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>1395</v>
+      <c r="H17" s="27" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5688,8 +5708,8 @@
       <c r="G24" s="24">
         <v>60.69</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>1393</v>
+      <c r="H24" s="27" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -6079,7 +6099,7 @@
         <v>63.85</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -6105,7 +6125,7 @@
         <v>87.65</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -7483,7 +7503,7 @@
         <v>41.05</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -7846,8 +7866,8 @@
       <c r="G107" s="24">
         <v>48.55</v>
       </c>
-      <c r="H107" s="23" t="s">
-        <v>1395</v>
+      <c r="H107" s="26" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -8237,7 +8257,7 @@
         <v>24.51</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -11071,7 +11091,7 @@
         <v>56.63</v>
       </c>
       <c r="H231" s="23" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
